--- a/result/results.xlsx
+++ b/result/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22815" windowHeight="7170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DTW" sheetId="2" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="ERP" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A16:S39"/>
 </workbook>
 </file>
 
@@ -154,18 +155,6 @@
     <t xml:space="preserve"> DTW </t>
   </si>
   <si>
-    <t xml:space="preserve"> XY_DTW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CID </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XY-CID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">NonInvasiveFatalECGThorax2 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,15 +182,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XY-CIDDTW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ERP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XY-ERP</t>
+    <t xml:space="preserve">CIDEU </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2DTbD-CIDEU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2DTbD-CIDDTW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2DTbD-DTW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2DTbD-ERP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:AG16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -580,7 +581,7 @@
         <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
@@ -1683,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:AI16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1694,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
@@ -2409,7 +2410,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
         <v>0.11959287531806601</v>
@@ -2547,7 +2548,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B35" s="1">
         <v>4.0553666828557502E-2</v>
@@ -2800,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:AF16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2811,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>55</v>
@@ -3271,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
@@ -3297,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -3323,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
@@ -3349,12 +3350,12 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1">
         <v>0.60363636363636297</v>
@@ -3375,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
@@ -3518,7 +3519,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1">
         <v>0.212722646310432</v>
@@ -3541,7 +3542,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1">
         <v>0.13180661577608099</v>
@@ -3608,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -3622,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F32" t="b">
         <f t="shared" si="0"/>
@@ -3637,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
@@ -3663,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
@@ -3689,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
@@ -3715,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
@@ -3741,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
@@ -3767,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
@@ -3793,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
@@ -3822,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.15">
@@ -3965,8 +3966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3979,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
         <v>57</v>
@@ -3996,7 +3997,7 @@
         <v>0.37340153452685398</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F33" si="0">IF(C2&lt;B2,1)</f>
@@ -4028,7 +4029,7 @@
         <v>0.36666666666666597</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F3" t="b">
         <f t="shared" si="0"/>
@@ -4060,7 +4061,7 @@
         <v>0.233333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F4" t="b">
         <f t="shared" si="0"/>
@@ -4092,7 +4093,7 @@
         <v>8.8888888888888299E-3</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -4124,7 +4125,7 @@
         <v>0.34401041666666599</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" t="b">
         <f t="shared" si="0"/>
@@ -4156,7 +4157,7 @@
         <v>0.15652173913043399</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -4188,7 +4189,7 @@
         <v>3.5714285714285698E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" t="b">
         <f t="shared" si="0"/>
@@ -4220,7 +4221,7 @@
         <v>0.243589743589743</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9" t="b">
         <f t="shared" si="0"/>
@@ -4252,7 +4253,7 @@
         <v>0.248717948717948</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -4284,7 +4285,7 @@
         <v>0.27435897435897399</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -4316,7 +4317,7 @@
         <v>5.5555555555555497E-2</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F12" t="b">
         <f t="shared" si="0"/>
@@ -4348,7 +4349,7 @@
         <v>8.3623693379790906E-2</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -4380,7 +4381,7 @@
         <v>0.19999999999999901</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -4412,7 +4413,7 @@
         <v>0.170454545454545</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F15" t="b">
         <f t="shared" si="0"/>
@@ -4444,7 +4445,7 @@
         <v>6.04878048780488E-2</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -4472,7 +4473,7 @@
         <v>0.272527472527472</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -4498,7 +4499,7 @@
         <v>0.125714285714285</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F18" t="b">
         <f t="shared" si="0"/>
@@ -4524,7 +4525,7 @@
         <v>7.9999999999999905E-2</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F19" t="b">
         <f t="shared" si="0"/>
@@ -4550,7 +4551,7 @@
         <v>0.56493506493506496</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -4599,7 +4600,7 @@
         <v>3.5957240038872601E-2</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -4625,7 +4626,7 @@
         <v>0.114754098360655</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -4651,7 +4652,7 @@
         <v>0.19178082191780799</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -4677,7 +4678,7 @@
         <v>7.84648187633262E-2</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -4703,7 +4704,7 @@
         <v>0.30526315789473601</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
@@ -4798,7 +4799,7 @@
         <v>0.133333333333333</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F30" t="b">
         <f t="shared" si="0"/>
@@ -4824,7 +4825,7 @@
         <v>0.38429752066115702</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
@@ -4850,7 +4851,7 @@
         <v>9.52380952380949E-3</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
@@ -4876,7 +4877,7 @@
         <v>0.20965058236272799</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
@@ -4902,7 +4903,7 @@
         <v>0.17418677859391299</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F34" t="b">
         <f t="shared" ref="F34:F44" si="3">IF(C34&lt;B34,1)</f>
@@ -4928,7 +4929,7 @@
         <v>0.142180670228266</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
@@ -4943,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
@@ -4957,7 +4958,7 @@
         <v>0.11839999999999901</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
@@ -4972,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
@@ -4986,7 +4987,7 @@
         <v>8.1407035175879397E-2</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F37" t="b">
         <f t="shared" si="3"/>
@@ -5001,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="O37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -5015,7 +5016,7 @@
         <v>0.06</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F38" t="b">
         <f t="shared" si="3"/>
@@ -5030,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -5044,7 +5045,7 @@
         <v>0.12</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F39" t="b">
         <f t="shared" si="3"/>
@@ -5059,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
@@ -5073,7 +5074,7 @@
         <v>0.21510096575943799</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F40" t="b">
         <f t="shared" si="3"/>
@@ -5099,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F41" t="b">
         <f t="shared" si="3"/>
@@ -5125,7 +5126,7 @@
         <v>5.0292018170019397E-3</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F42">
         <f t="shared" si="3"/>
@@ -5151,7 +5152,7 @@
         <v>0.32131661442006199</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F43">
         <f t="shared" si="3"/>
@@ -5177,7 +5178,7 @@
         <v>0.142666666666666</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F44">
         <f t="shared" si="3"/>
@@ -5208,12 +5209,12 @@
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E52" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
